--- a/docs/logdata_general.xlsx
+++ b/docs/logdata_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Documents\GitHub\cern_data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8D73D9-FBDB-479C-80EB-4167EC89CF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF932B5B-E4B3-4880-BC28-F6690CB40EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3F941097-CA86-4895-A431-AE92C65AA0EA}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>V4 (V)</t>
   </si>
@@ -114,6 +108,36 @@
   </si>
   <si>
     <t>Redémarré</t>
+  </si>
+  <si>
+    <t>Pression externe (bar)</t>
+  </si>
+  <si>
+    <t>Mouvement -5</t>
+  </si>
+  <si>
+    <t>Commentaires</t>
+  </si>
+  <si>
+    <t>Mouvement 5</t>
+  </si>
+  <si>
+    <t>Position affichée</t>
+  </si>
+  <si>
+    <t>Position physique</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>LN2 tube</t>
+  </si>
+  <si>
+    <t>Fichier-&gt;Marie</t>
+  </si>
+  <si>
+    <t>Envoyé</t>
   </si>
 </sst>
 </file>
@@ -153,15 +177,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED5233-F8B3-40D2-A4A6-FD6E6F7FFBE7}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:AD14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,126 +510,159 @@
     <col min="3" max="3" width="11.109375" customWidth="1"/>
     <col min="11" max="11" width="13.88671875" customWidth="1"/>
     <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="22" max="22" width="21.5546875" customWidth="1"/>
+    <col min="23" max="23" width="14.33203125" customWidth="1"/>
+    <col min="24" max="24" width="14.21875" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" customWidth="1"/>
+    <col min="30" max="30" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="W1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>45090</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.44722222222222219</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>-193.96</f>
         <v>-193.96</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <f>-193.99</f>
         <v>-193.99</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>-194</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>-174.46</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>68.400000000000006</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>42.6</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>23.4</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>12.3</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>250</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>6</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>16</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>90</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="P2">
+        <v>0.09</v>
+      </c>
+      <c r="Q2">
+        <v>0.08</v>
       </c>
       <c r="R2">
         <v>24</v>
@@ -616,60 +671,60 @@
         <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
         <v>0.73749999999999993</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <v>-193.96</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>-193.99</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>-193.97</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>-193.99</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>47.5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>37.4</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>25.3</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>16.7</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>120</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>6</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>16</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>99</v>
       </c>
       <c r="O3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>0.09</v>
+      </c>
+      <c r="Q3">
+        <v>0.08</v>
       </c>
       <c r="R3">
         <v>24</v>
@@ -678,56 +733,146 @@
         <v>24</v>
       </c>
       <c r="T3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" t="s">
         <v>23</v>
       </c>
-      <c r="U3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
+      <c r="V3">
+        <v>163</v>
+      </c>
+      <c r="AC3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-193.86</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-193.89</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-193.84</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-144.12</v>
+      </c>
+      <c r="G4" s="3">
+        <v>65.7</v>
+      </c>
+      <c r="H4" s="3">
+        <v>44.2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>120</v>
+      </c>
+      <c r="L4" s="3">
+        <v>7</v>
+      </c>
+      <c r="M4" s="3">
+        <v>16</v>
+      </c>
+      <c r="N4" s="3">
+        <v>95</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="R4">
+        <v>24</v>
+      </c>
+      <c r="S4">
+        <v>24</v>
+      </c>
+      <c r="T4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4">
+        <v>150</v>
+      </c>
+      <c r="W4">
+        <v>595</v>
+      </c>
+      <c r="X4">
+        <v>608</v>
+      </c>
+      <c r="Y4">
+        <v>602</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4">
+        <v>607</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/logdata_general.xlsx
+++ b/docs/logdata_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Documents\GitHub\cern_data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF932B5B-E4B3-4880-BC28-F6690CB40EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E14F66-766F-41A9-8E34-24597CAF61BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3F941097-CA86-4895-A431-AE92C65AA0EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>V4 (V)</t>
   </si>
@@ -138,15 +138,41 @@
   </si>
   <si>
     <t>Envoyé</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Data W copié</t>
+  </si>
+  <si>
+    <t>Fait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En cours </t>
+  </si>
+  <si>
+    <t>YEs</t>
+  </si>
+  <si>
+    <t>ENvoyé</t>
+  </si>
+  <si>
+    <t>OK (fait -6)</t>
+  </si>
+  <si>
+    <t>604.36</t>
+  </si>
+  <si>
+    <t>OK (fait +5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -177,13 +203,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED5233-F8B3-40D2-A4A6-FD6E6F7FFBE7}">
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,7 +545,7 @@
     <col min="30" max="30" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -609,50 +636,53 @@
       <c r="AD1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45090</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0.44722222222222219</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <f>-193.96</f>
         <v>-193.96</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <f>-193.99</f>
         <v>-193.99</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>-194</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>-174.46</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>68.400000000000006</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>42.6</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>23.4</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>12.3</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>250</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>6</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>16</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>90</v>
       </c>
       <c r="O2" t="s">
@@ -677,44 +707,44 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B3" s="5">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
         <v>0.73749999999999993</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>-193.96</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>-193.99</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>-193.97</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>-193.99</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>47.5</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>37.4</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>25.3</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>16.7</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>120</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>6</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>16</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>99</v>
       </c>
       <c r="O3" t="s">
@@ -745,56 +775,56 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45091</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.3833333333333333</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>-193.86</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>-193.89</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>-193.84</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>-144.12</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>65.7</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>44.2</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>23</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>16.3</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>120</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>7</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>16</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>95</v>
       </c>
       <c r="O4" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>0.09</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>0.08</v>
       </c>
       <c r="R4">
@@ -834,45 +864,803 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-193.85</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-193.88</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-193.84</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-131.72</v>
+      </c>
+      <c r="G5" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2">
+        <v>120</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2">
+        <v>93</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="R5" s="2">
+        <v>24</v>
+      </c>
+      <c r="S5" s="2">
+        <v>24</v>
+      </c>
+      <c r="T5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="2">
+        <v>150</v>
+      </c>
+      <c r="W5" s="2">
+        <v>603.79999999999995</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45092</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-193.78</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-193.8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-193.78</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-117.18</v>
+      </c>
+      <c r="G6">
+        <v>51.2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>41.1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>22.9</v>
+      </c>
+      <c r="J6" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>120</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="R6" s="2">
+        <v>24</v>
+      </c>
+      <c r="S6" s="2">
+        <v>24</v>
+      </c>
+      <c r="T6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="2">
+        <v>150</v>
+      </c>
+      <c r="W6" s="2">
+        <v>604.16999999999996</v>
+      </c>
+      <c r="X6" s="2">
+        <v>604</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>599.15</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>605.67999999999995</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-193.94</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-193.97</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-193.95</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-193.99</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="I7" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="K7" s="2">
+        <v>120</v>
+      </c>
+      <c r="L7" s="2">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2">
+        <v>98.3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="R7" s="2">
+        <v>24</v>
+      </c>
+      <c r="S7" s="2">
+        <v>24</v>
+      </c>
+      <c r="T7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7">
+        <v>606.5</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-193.4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-193.96</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-193.96</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-193.95</v>
+      </c>
+      <c r="G8" s="2">
+        <v>53.3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>42.7</v>
+      </c>
+      <c r="I8" s="2">
+        <v>23.3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2">
+        <v>120</v>
+      </c>
+      <c r="L8" s="2">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2">
+        <v>5</v>
+      </c>
+      <c r="N8" s="2">
+        <v>99.6</v>
+      </c>
+      <c r="O8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="R8" s="2">
+        <v>24</v>
+      </c>
+      <c r="S8" s="2">
+        <v>24</v>
+      </c>
+      <c r="T8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" s="2">
+        <v>150</v>
+      </c>
+      <c r="W8" s="2">
+        <v>606.5</v>
+      </c>
+      <c r="Y8">
+        <v>601.16999999999996</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA8">
+        <v>606.45000000000005</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC8">
+        <v>45</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>0.72361111111111109</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-193.87</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-193.9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-193.87</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-193.88</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>26</v>
+      </c>
+      <c r="J9" s="2">
+        <v>17.8</v>
+      </c>
+      <c r="K9" s="2">
+        <v>120</v>
+      </c>
+      <c r="L9" s="2">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="R9" s="2">
+        <v>24</v>
+      </c>
+      <c r="S9" s="2">
+        <v>24</v>
+      </c>
+      <c r="T9" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" t="s">
+        <v>23</v>
+      </c>
+      <c r="V9" s="2">
+        <v>140</v>
+      </c>
+      <c r="W9" s="2">
+        <v>612.9</v>
+      </c>
+      <c r="X9" s="2">
+        <v>613</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-193.78</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-193.78</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-193.74</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-105.85</v>
+      </c>
+      <c r="G10" s="2">
+        <v>54.8</v>
+      </c>
+      <c r="H10" s="2">
+        <v>45.8</v>
+      </c>
+      <c r="I10" s="2">
+        <v>24.6</v>
+      </c>
+      <c r="J10" s="2">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2">
+        <v>120</v>
+      </c>
+      <c r="L10" s="2">
+        <v>4</v>
+      </c>
+      <c r="M10" s="2">
+        <v>4</v>
+      </c>
+      <c r="N10" s="2">
+        <v>82.8</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="R10" s="2">
+        <v>24</v>
+      </c>
+      <c r="S10" s="2">
+        <v>24</v>
+      </c>
+      <c r="T10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" t="s">
+        <v>23</v>
+      </c>
+      <c r="V10" s="2">
+        <v>130</v>
+      </c>
+      <c r="W10" s="2">
+        <v>614.28</v>
+      </c>
+      <c r="X10" s="2">
+        <v>610</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>603.9</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>610.37</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>50</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-193.97</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-194</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-193.98</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-193.98</v>
+      </c>
+      <c r="G11" s="2">
+        <v>53.7</v>
+      </c>
+      <c r="H11" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="J11" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="K11" s="2">
+        <v>120</v>
+      </c>
+      <c r="L11" s="2">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5</v>
+      </c>
+      <c r="N11" s="2">
+        <v>99</v>
+      </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="R11" s="2">
+        <v>24</v>
+      </c>
+      <c r="S11" s="2">
+        <v>24</v>
+      </c>
+      <c r="T11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" t="s">
+        <v>23</v>
+      </c>
+      <c r="V11" s="2">
+        <v>130</v>
+      </c>
+      <c r="W11" s="2">
+        <v>601.84</v>
+      </c>
+      <c r="X11" s="2">
+        <v>601</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-193.96</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-193.98</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-193.97</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-193.95</v>
+      </c>
+      <c r="G12" s="2">
+        <v>66.5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>54.1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>24.2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>16</v>
+      </c>
+      <c r="K12" s="2">
+        <v>120</v>
+      </c>
+      <c r="L12" s="2">
+        <v>5</v>
+      </c>
+      <c r="M12" s="2">
+        <v>5</v>
+      </c>
+      <c r="N12" s="2">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="R12" s="2">
+        <v>24</v>
+      </c>
+      <c r="S12" s="2">
+        <v>24</v>
+      </c>
+      <c r="T12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" t="s">
+        <v>23</v>
+      </c>
+      <c r="V12" s="2">
+        <v>120</v>
+      </c>
+      <c r="W12" s="2">
+        <v>601.57000000000005</v>
+      </c>
+      <c r="X12" s="2">
+        <v>604</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>597.99</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC12">
+        <v>46</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-193.78</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-193.81</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-193.77</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-150.28</v>
+      </c>
+      <c r="G13" s="2">
+        <v>76</v>
+      </c>
+      <c r="H13" s="2">
+        <v>52.6</v>
+      </c>
+      <c r="I13" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="J13" s="2">
+        <v>18</v>
+      </c>
+      <c r="K13" s="2">
+        <v>120</v>
+      </c>
+      <c r="L13" s="2">
+        <v>21</v>
+      </c>
+      <c r="M13" s="2">
+        <v>6</v>
+      </c>
+      <c r="N13" s="2">
+        <v>96</v>
+      </c>
+      <c r="O13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="R13" s="2">
+        <v>24</v>
+      </c>
+      <c r="S13" s="2">
+        <v>24</v>
+      </c>
+      <c r="T13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" t="s">
+        <v>23</v>
+      </c>
+      <c r="V13" s="2">
+        <v>113</v>
+      </c>
+      <c r="W13" s="2">
+        <v>576.99</v>
+      </c>
+      <c r="X13" s="2">
+        <v>722.75</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/logdata_general.xlsx
+++ b/docs/logdata_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Documents\GitHub\cern_data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E14F66-766F-41A9-8E34-24597CAF61BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835C2ADC-997D-4D59-9731-8469F22A056F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3F941097-CA86-4895-A431-AE92C65AA0EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
   <si>
     <t>V4 (V)</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>OK (fait +5)</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -211,6 +214,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED5233-F8B3-40D2-A4A6-FD6E6F7FFBE7}">
   <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,9 +1593,7 @@
       <c r="W13" s="2">
         <v>576.99</v>
       </c>
-      <c r="X13" s="2">
-        <v>722.75</v>
-      </c>
+      <c r="X13" s="2"/>
       <c r="Z13" t="s">
         <v>30</v>
       </c>
@@ -1603,16 +1605,220 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="1">
+        <v>45100</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-193.84</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-193.86</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-193.84</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-173.62</v>
+      </c>
+      <c r="G14" s="2">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="H14" s="2">
+        <v>61.2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>120</v>
+      </c>
+      <c r="L14" s="2">
+        <v>21</v>
+      </c>
+      <c r="M14" s="2">
+        <v>6</v>
+      </c>
+      <c r="N14" s="2">
+        <v>96.5</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="R14" s="2">
+        <v>24</v>
+      </c>
+      <c r="S14" s="2">
+        <v>24</v>
+      </c>
+      <c r="T14" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" t="s">
+        <v>23</v>
+      </c>
+      <c r="V14" s="2">
+        <v>100</v>
+      </c>
+      <c r="W14" s="2">
+        <v>556.92999999999995</v>
+      </c>
+      <c r="X14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="4">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-193.73</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-193.78</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-193.74</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-143.93</v>
+      </c>
+      <c r="G15" s="2">
+        <v>52.2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>18</v>
+      </c>
+      <c r="K15" s="2">
+        <v>120</v>
+      </c>
+      <c r="L15" s="2">
+        <v>6</v>
+      </c>
+      <c r="M15" s="2">
+        <v>16</v>
+      </c>
+      <c r="N15" s="2">
+        <v>94.7</v>
+      </c>
+      <c r="O15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="R15" s="2">
+        <v>24</v>
+      </c>
+      <c r="S15" s="2">
+        <v>24</v>
+      </c>
+      <c r="T15" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" t="s">
+        <v>23</v>
+      </c>
+      <c r="V15" s="2">
+        <v>100</v>
+      </c>
+      <c r="W15" s="2">
+        <v>557.07000000000005</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="7">
+        <v>45103</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-193.7</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-193.74</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-193.67</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-99.74</v>
+      </c>
+      <c r="G16" s="2">
+        <v>56</v>
+      </c>
+      <c r="H16" s="2">
+        <v>47.9</v>
+      </c>
+      <c r="I16" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="L16" s="2">
+        <v>6</v>
+      </c>
+      <c r="M16" s="2">
+        <v>13</v>
+      </c>
+      <c r="N16" s="2">
+        <v>78</v>
+      </c>
+      <c r="O16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="R16" s="2">
+        <v>24</v>
+      </c>
+      <c r="S16" s="2">
+        <v>24</v>
+      </c>
+      <c r="T16" t="s">
+        <v>23</v>
+      </c>
+      <c r="U16" t="s">
+        <v>23</v>
+      </c>
+      <c r="V16" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
